--- a/docs/ValueSet-EnfermedadesPreviasCodificacionVS.xlsx
+++ b/docs/ValueSet-EnfermedadesPreviasCodificacionVS.xlsx
@@ -42,7 +42,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3409</t>
+    <t>0.1.41</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/ValueSet-EnfermedadesPreviasCodificacionVS.xlsx
+++ b/docs/ValueSet-EnfermedadesPreviasCodificacionVS.xlsx
@@ -7,25 +7,24 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from mms" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from ICD-10" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from ICD-10 2" r:id="rId6" sheetId="4"/>
-    <sheet name="Include from ICD-10 3" r:id="rId7" sheetId="5"/>
-    <sheet name="Include from ICD-10 4" r:id="rId8" sheetId="6"/>
-    <sheet name="Include from ICD-10 5" r:id="rId9" sheetId="7"/>
-    <sheet name="Include from ICD-10 6" r:id="rId10" sheetId="8"/>
-    <sheet name="Include from ICD-10 7" r:id="rId11" sheetId="9"/>
-    <sheet name="Include from ICD-10 8" r:id="rId12" sheetId="10"/>
-    <sheet name="Include from ICD-10 9" r:id="rId13" sheetId="11"/>
-    <sheet name="Include from ICD-10 10" r:id="rId14" sheetId="12"/>
-    <sheet name="Include from ICD-10 11" r:id="rId15" sheetId="13"/>
-    <sheet name="Include from SNOMED CT" r:id="rId16" sheetId="14"/>
+    <sheet name="Include from ICD-10" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from ICD-10 2" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from ICD-10 3" r:id="rId6" sheetId="4"/>
+    <sheet name="Include from ICD-10 4" r:id="rId7" sheetId="5"/>
+    <sheet name="Include from ICD-10 5" r:id="rId8" sheetId="6"/>
+    <sheet name="Include from ICD-10 6" r:id="rId9" sheetId="7"/>
+    <sheet name="Include from ICD-10 7" r:id="rId10" sheetId="8"/>
+    <sheet name="Include from ICD-10 8" r:id="rId11" sheetId="9"/>
+    <sheet name="Include from ICD-10 9" r:id="rId12" sheetId="10"/>
+    <sheet name="Include from ICD-10 10" r:id="rId13" sheetId="11"/>
+    <sheet name="Include from ICD-10 11" r:id="rId14" sheetId="12"/>
+    <sheet name="Include from SNOMED CT" r:id="rId15" sheetId="13"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="47">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +41,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.41</t>
+    <t>0.1.42</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,6 +65,9 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -117,7 +119,7 @@
     <t>is-a</t>
   </si>
   <si>
-    <t>XY0Y</t>
+    <t>E03.9</t>
   </si>
   <si>
     <t/>
@@ -126,12 +128,6 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://id.who.int/icd11/mms</t>
-  </si>
-  <si>
-    <t>E03.9</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/sid/icd-10</t>
   </si>
   <si>
@@ -165,7 +161,7 @@
     <t>H93.1</t>
   </si>
   <si>
-    <t>391103005</t>
+    <t>404684003</t>
   </si>
   <si>
     <t>http://snomed.info/sct</t>
@@ -364,66 +360,68 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -448,18 +446,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="2">
         <v>42</v>
@@ -467,350 +465,295 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s" s="2">
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>35</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s" s="2">
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -833,18 +776,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="2">
         <v>36</v>
@@ -852,18 +795,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -888,18 +831,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="2">
         <v>37</v>
@@ -907,18 +850,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -943,18 +886,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="2">
         <v>38</v>
@@ -962,18 +905,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -998,18 +941,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="2">
         <v>39</v>
@@ -1017,18 +960,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1053,18 +996,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="2">
         <v>40</v>
@@ -1072,18 +1015,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1108,18 +1051,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="2">
         <v>41</v>
@@ -1127,18 +1070,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ValueSet-EnfermedadesPreviasCodificacionVS.xlsx
+++ b/docs/ValueSet-EnfermedadesPreviasCodificacionVS.xlsx
@@ -41,7 +41,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.42</t>
+    <t>0.1.43</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/ValueSet-EnfermedadesPreviasCodificacionVS.xlsx
+++ b/docs/ValueSet-EnfermedadesPreviasCodificacionVS.xlsx
@@ -41,7 +41,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.43</t>
+    <t>0.1.44</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/ValueSet-EnfermedadesPreviasCodificacionVS.xlsx
+++ b/docs/ValueSet-EnfermedadesPreviasCodificacionVS.xlsx
@@ -41,7 +41,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.44</t>
+    <t>0.1.45</t>
   </si>
   <si>
     <t>Name</t>
